--- a/VideoGameAPIData.xlsx
+++ b/VideoGameAPIData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\VideoGameProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeRepository\VideoGameProject-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795ED71B-F73D-4871-93DA-1EC41DD71199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EACDD4-AAE4-429F-8DC2-30E6E3CAB353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -48,25 +48,43 @@
     <t>Spider-Man</t>
   </si>
   <si>
-    <t>2019-09-20T08:55:58.510Z</t>
-  </si>
-  <si>
     <t>Adventure</t>
   </si>
   <si>
-    <t>Universal</t>
-  </si>
-  <si>
-    <t>Hide-and-seek</t>
-  </si>
-  <si>
-    <t>Musical chairs</t>
-  </si>
-  <si>
-    <t>Charades</t>
-  </si>
-  <si>
     <t>Pictionary</t>
+  </si>
+  <si>
+    <t>2021-01-20T08:55:58.510Z</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Scifi</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>PG13</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>Arms</t>
   </si>
 </sst>
 </file>
@@ -429,7 +447,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,19 +485,19 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -487,19 +505,19 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -507,19 +525,19 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -527,19 +545,19 @@
         <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -550,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
